--- a/CompanyDatabase.xlsx
+++ b/CompanyDatabase.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azzam\Desktop\codeStuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Personal Growth\PhishAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA3155-0ED9-4592-AF4B-076B534DBCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BD2E326-52A4-41F1-844D-BEFA9C61B169}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Company Address</t>
   </si>
@@ -62,9 +61,6 @@
     <t>White House Inc</t>
   </si>
   <si>
-    <t>haq.azzam@gmail.com</t>
-  </si>
-  <si>
     <t>Azzam</t>
   </si>
   <si>
@@ -72,16 +68,33 @@
   </si>
   <si>
     <t>Operation  White Falcon</t>
+  </si>
+  <si>
+    <t>sanankhan629@gmail.com</t>
+  </si>
+  <si>
+    <t>Colleague</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,13 +117,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,24 +438,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16CE2EE-75AD-4D31-9B10-ECF6DBD441B6}">
-  <dimension ref="B1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -458,28 +474,37 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>